--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mmp12</t>
+  </si>
+  <si>
+    <t>Plaur</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmp12</t>
-  </si>
-  <si>
-    <t>Plaur</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09152466666666666</v>
+        <v>0.02163266666666666</v>
       </c>
       <c r="H2">
-        <v>0.274574</v>
+        <v>0.064898</v>
       </c>
       <c r="I2">
-        <v>0.003795845726701291</v>
+        <v>0.0002852943493831326</v>
       </c>
       <c r="J2">
-        <v>0.003795845726701292</v>
+        <v>0.0002852943493831326</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N2">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O2">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P2">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q2">
-        <v>2.545957974565555</v>
+        <v>0.3252392834644444</v>
       </c>
       <c r="R2">
-        <v>22.91362177109</v>
+        <v>2.92715355118</v>
       </c>
       <c r="S2">
-        <v>0.001535321124715245</v>
+        <v>6.855435937314257E-05</v>
       </c>
       <c r="T2">
-        <v>0.001535321124715245</v>
+        <v>6.855435937314257E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09152466666666666</v>
+        <v>0.02163266666666666</v>
       </c>
       <c r="H3">
-        <v>0.274574</v>
+        <v>0.064898</v>
       </c>
       <c r="I3">
-        <v>0.003795845726701291</v>
+        <v>0.0002852943493831326</v>
       </c>
       <c r="J3">
-        <v>0.003795845726701292</v>
+        <v>0.0002852943493831326</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.482232</v>
       </c>
       <c r="O3">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P3">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q3">
-        <v>0.4418271521297777</v>
+        <v>0.1044297658151111</v>
       </c>
       <c r="R3">
-        <v>3.976444369168</v>
+        <v>0.939867892336</v>
       </c>
       <c r="S3">
-        <v>0.0002664405960013451</v>
+        <v>2.201184192353224E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002664405960013451</v>
+        <v>2.201184192353224E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09152466666666666</v>
+        <v>0.02163266666666666</v>
       </c>
       <c r="H4">
-        <v>0.274574</v>
+        <v>0.064898</v>
       </c>
       <c r="I4">
-        <v>0.003795845726701291</v>
+        <v>0.0002852943493831326</v>
       </c>
       <c r="J4">
-        <v>0.003795845726701292</v>
+        <v>0.0002852943493831326</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N4">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O4">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P4">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q4">
-        <v>0.3722022941455555</v>
+        <v>0.1343806615228889</v>
       </c>
       <c r="R4">
-        <v>3.34982064731</v>
+        <v>1.209425953706</v>
       </c>
       <c r="S4">
-        <v>0.0002244538403924996</v>
+        <v>2.832493069321334E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002244538403924996</v>
+        <v>2.832493069321334E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09152466666666666</v>
+        <v>0.02163266666666666</v>
       </c>
       <c r="H5">
-        <v>0.274574</v>
+        <v>0.064898</v>
       </c>
       <c r="I5">
-        <v>0.003795845726701291</v>
+        <v>0.0002852943493831326</v>
       </c>
       <c r="J5">
-        <v>0.003795845726701292</v>
+        <v>0.0002852943493831326</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N5">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O5">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P5">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q5">
-        <v>2.934502730141777</v>
+        <v>0.7894591049502222</v>
       </c>
       <c r="R5">
-        <v>26.410524571276</v>
+        <v>7.105131944552</v>
       </c>
       <c r="S5">
-        <v>0.001769630165592202</v>
+        <v>0.0001664032173932445</v>
       </c>
       <c r="T5">
-        <v>0.001769630165592202</v>
+        <v>0.0001664032173932445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5841013333333334</v>
+        <v>0.09152466666666666</v>
       </c>
       <c r="H6">
-        <v>1.752304</v>
+        <v>0.274574</v>
       </c>
       <c r="I6">
-        <v>0.02422471046159352</v>
+        <v>0.00120703890239336</v>
       </c>
       <c r="J6">
-        <v>0.02422471046159352</v>
+        <v>0.00120703890239336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N6">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O6">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P6">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q6">
-        <v>16.24805095407111</v>
+        <v>1.376040109371111</v>
       </c>
       <c r="R6">
-        <v>146.23245858664</v>
+        <v>12.38436098434</v>
       </c>
       <c r="S6">
-        <v>0.00979826694487833</v>
+        <v>0.0002900435247699658</v>
       </c>
       <c r="T6">
-        <v>0.009798266944878332</v>
+        <v>0.0002900435247699659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5841013333333334</v>
+        <v>0.09152466666666666</v>
       </c>
       <c r="H7">
-        <v>1.752304</v>
+        <v>0.274574</v>
       </c>
       <c r="I7">
-        <v>0.02422471046159352</v>
+        <v>0.00120703890239336</v>
       </c>
       <c r="J7">
-        <v>0.02422471046159352</v>
+        <v>0.00120703890239336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>14.482232</v>
       </c>
       <c r="O7">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P7">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q7">
-        <v>2.819697006947556</v>
+        <v>0.4418271521297777</v>
       </c>
       <c r="R7">
-        <v>25.377273062528</v>
+        <v>3.976444369168</v>
       </c>
       <c r="S7">
-        <v>0.001700397423410596</v>
+        <v>9.312890203568587E-05</v>
       </c>
       <c r="T7">
-        <v>0.001700397423410596</v>
+        <v>9.312890203568587E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5841013333333334</v>
+        <v>0.09152466666666666</v>
       </c>
       <c r="H8">
-        <v>1.752304</v>
+        <v>0.274574</v>
       </c>
       <c r="I8">
-        <v>0.02422471046159352</v>
+        <v>0.00120703890239336</v>
       </c>
       <c r="J8">
-        <v>0.02422471046159352</v>
+        <v>0.00120703890239336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N8">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O8">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P8">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q8">
-        <v>2.375358077751111</v>
+        <v>0.5685450361642221</v>
       </c>
       <c r="R8">
-        <v>21.37822269976</v>
+        <v>5.116905325478</v>
       </c>
       <c r="S8">
-        <v>0.001432442118828216</v>
+        <v>0.0001198386625190046</v>
       </c>
       <c r="T8">
-        <v>0.001432442118828216</v>
+        <v>0.0001198386625190046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5841013333333334</v>
+        <v>0.09152466666666666</v>
       </c>
       <c r="H9">
-        <v>1.752304</v>
+        <v>0.274574</v>
       </c>
       <c r="I9">
-        <v>0.02422471046159352</v>
+        <v>0.00120703890239336</v>
       </c>
       <c r="J9">
-        <v>0.02422471046159352</v>
+        <v>0.00120703890239336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N9">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O9">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P9">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q9">
-        <v>18.72770499769955</v>
+        <v>3.340086663419556</v>
       </c>
       <c r="R9">
-        <v>168.549344979296</v>
+        <v>30.060779970776</v>
       </c>
       <c r="S9">
-        <v>0.01129360397447638</v>
+        <v>0.0007040278130687033</v>
       </c>
       <c r="T9">
-        <v>0.01129360397447638</v>
+        <v>0.0007040278130687033</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.43617233333334</v>
+        <v>75.71262299999999</v>
       </c>
       <c r="H10">
-        <v>70.30851700000001</v>
+        <v>227.137869</v>
       </c>
       <c r="I10">
-        <v>0.9719794438117051</v>
+        <v>0.9985076667482236</v>
       </c>
       <c r="J10">
-        <v>0.9719794438117052</v>
+        <v>0.9985076667482236</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N10">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O10">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P10">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q10">
-        <v>651.9281852470662</v>
+        <v>1138.31177788531</v>
       </c>
       <c r="R10">
-        <v>5867.353667223596</v>
+        <v>10244.80600096779</v>
       </c>
       <c r="S10">
-        <v>0.3931404699552795</v>
+        <v>0.2399348377249804</v>
       </c>
       <c r="T10">
-        <v>0.3931404699552796</v>
+        <v>0.2399348377249804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.43617233333334</v>
+        <v>75.71262299999999</v>
       </c>
       <c r="H11">
-        <v>70.30851700000001</v>
+        <v>227.137869</v>
       </c>
       <c r="I11">
-        <v>0.9719794438117051</v>
+        <v>0.9985076667482236</v>
       </c>
       <c r="J11">
-        <v>0.9719794438117052</v>
+        <v>0.9985076667482236</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.482232</v>
       </c>
       <c r="O11">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P11">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q11">
-        <v>113.1360283077716</v>
+        <v>365.4959238715119</v>
       </c>
       <c r="R11">
-        <v>1018.224254769944</v>
+        <v>3289.463314843608</v>
       </c>
       <c r="S11">
-        <v>0.06822584503066825</v>
+        <v>0.07703970642047482</v>
       </c>
       <c r="T11">
-        <v>0.06822584503066825</v>
+        <v>0.07703970642047482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.43617233333334</v>
+        <v>75.71262299999999</v>
       </c>
       <c r="H12">
-        <v>70.30851700000001</v>
+        <v>227.137869</v>
       </c>
       <c r="I12">
-        <v>0.9719794438117051</v>
+        <v>0.9985076667482236</v>
       </c>
       <c r="J12">
-        <v>0.9719794438117052</v>
+        <v>0.9985076667482236</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N12">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O12">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P12">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q12">
-        <v>95.30760860595612</v>
+        <v>470.3216908551769</v>
       </c>
       <c r="R12">
-        <v>857.7684774536051</v>
+        <v>4232.895217696593</v>
       </c>
       <c r="S12">
-        <v>0.05747454840207502</v>
+        <v>0.09913501798559542</v>
       </c>
       <c r="T12">
-        <v>0.05747454840207503</v>
+        <v>0.09913501798559543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.43617233333334</v>
+        <v>75.71262299999999</v>
       </c>
       <c r="H13">
-        <v>70.30851700000001</v>
+        <v>227.137869</v>
       </c>
       <c r="I13">
-        <v>0.9719794438117051</v>
+        <v>0.9985076667482236</v>
       </c>
       <c r="J13">
-        <v>0.9719794438117052</v>
+        <v>0.9985076667482236</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N13">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O13">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P13">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q13">
-        <v>751.4205099125176</v>
+        <v>2763.044450692484</v>
       </c>
       <c r="R13">
-        <v>6762.784589212659</v>
+        <v>24867.40005623236</v>
       </c>
       <c r="S13">
-        <v>0.4531385804236823</v>
+        <v>0.5823981046171729</v>
       </c>
       <c r="T13">
-        <v>0.4531385804236824</v>
+        <v>0.5823981046171729</v>
       </c>
     </row>
   </sheetData>
